--- a/data/dashboard_data/training_validation_logs.xlsx
+++ b/data/dashboard_data/training_validation_logs.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">

--- a/data/dashboard_data/training_validation_logs.xlsx
+++ b/data/dashboard_data/training_validation_logs.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">

--- a/data/dashboard_data/training_validation_logs.xlsx
+++ b/data/dashboard_data/training_validation_logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Wafer_07012024_000000.csv</t>
+          <t>final_file.csv</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -523,17 +523,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>wafer_07012024_041011.csv</t>
+          <t>final_file_prediction.csv</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -553,27 +553,27 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>wafer_07012024_041011.csv</t>
+          <t>Wafer_07012024_000000.csv</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -613,27 +613,27 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Wafer_07012024_223345.csv</t>
+          <t>wafer_07012024_041011.csv</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Wafer_08012024_120000.csv</t>
+          <t>wafer_07012024_041011.csv</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Wafer_10012024_131534.csv</t>
+          <t>Wafer_07012024_223345.csv</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Wafer_11012024_151432.csv</t>
+          <t>Wafer_08012024_120000.csv</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Wafer_12012024_111.csv</t>
+          <t>Wafer_10012024_131534.csv</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Wafer_12012024_111213.csv</t>
+          <t>Wafer_11012024_151432.csv</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>wafer_13012024_090817.csv</t>
+          <t>Wafer_12012024_111.csv</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -823,27 +823,27 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>wafer_13012024_090817.csv</t>
+          <t>Wafer_12012024_111213.csv</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -913,27 +913,27 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Wafer_13012024_141000.csv</t>
+          <t>wafer_13012024_090817.csv</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -943,27 +943,27 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Wafer_14012024_113045.csv</t>
+          <t>wafer_13012024_090817.csv</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Wafer_15012024_130532.csv</t>
+          <t>Wafer_13012024_141000.csv</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_051629.csv</t>
+          <t>Wafer_14012024_113045.csv</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1033,27 +1033,27 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_051629.csv</t>
+          <t>Wafer_15012024_130532.csv</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_134553.csv</t>
+          <t>wafer_16012024_051629.csv</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1153,27 +1153,27 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_134553.csv</t>
+          <t>wafer_16012024_051629.csv</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>COLUMN_DIFF BETWEEN DSA FILE AND PREDICTION FILE:-1</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>wafer_17012024_125434.csv</t>
+          <t>wafer_16012024_134553.csv</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>wafer_17012024_125434.csv</t>
+          <t>wafer_16012024_134553.csv</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Wafer_18012024_121532.csv</t>
+          <t>wafer_17012024_125434.csv</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Wafer_19012024_141432.csv</t>
+          <t>wafer_17012024_125434.csv</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN_DIFF BETWEEN DSA FILE AND PREDICTION FILE:-1</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>wafer_20012024_090819.csv</t>
+          <t>Wafer_18012024_121532.csv</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1333,27 +1333,27 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>wafer_20012024_090819.csv</t>
+          <t>Wafer_19012024_141432.csv</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1393,27 +1393,27 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Wafer_20012024_135132.csv</t>
+          <t>wafer_20012024_090819.csv</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1423,27 +1423,27 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>wafer_20022024_090716.csv</t>
+          <t>wafer_20012024_090819.csv</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -1453,27 +1453,27 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>wafer_20022024_090716.csv</t>
+          <t>Wafer_20012024_135132.csv</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1543,12 +1543,12 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>wafer_21012024_080913.csv</t>
+          <t>wafer_20022024_090716.csv</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>wafer_21012024_080913.csv</t>
+          <t>wafer_20022024_090716.csv</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1663,27 +1663,27 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Wafer_21012024_143634.csv</t>
+          <t>wafer_21012024_080913.csv</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1693,27 +1693,27 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Wafer_22012024_173245.csv</t>
+          <t>wafer_21012024_080913.csv</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>wafer_22022024_041119.csv</t>
+          <t>Wafer_21012024_143634.csv</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1753,27 +1753,27 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>wafer_22022024_041119.csv</t>
+          <t>Wafer_22012024_173245.csv</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1793,17 +1793,17 @@
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1813,12 +1813,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_011008.csv</t>
+          <t>wafer_22022024_041119.csv</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1843,27 +1843,27 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_011008.csv</t>
+          <t>wafer_22022024_041119.csv</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_041211.csv</t>
+          <t>wafer_23012024_011008.csv</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1933,27 +1933,27 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_041211.csv</t>
+          <t>wafer_23012024_011008.csv</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2023,27 +2023,27 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Wafer_23012024_163456.csv</t>
+          <t>wafer_23012024_041211.csv</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2053,27 +2053,27 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Wafer_24012024_150121.csv</t>
+          <t>wafer_23012024_041211.csv</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Wafer_25012024_142112.csv</t>
+          <t>Wafer_23012024_163456.csv</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>wafer_27012024_080911.csv</t>
+          <t>Wafer_24012024_150121.csv</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -2143,27 +2143,27 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>wafer_27012024_080911.csv</t>
+          <t>Wafer_25012024_142112.csv</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_051011.csv</t>
+          <t>wafer_27012024_080911.csv</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2263,12 +2263,12 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_051011.csv</t>
+          <t>wafer_27012024_080911.csv</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_090817.csv</t>
+          <t>wafer_28012024_051011.csv</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2353,27 +2353,27 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_090817.csv</t>
+          <t>wafer_28012024_051011.csv</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>wafer_28042024_031911.csv</t>
+          <t>wafer_28012024_090817.csv</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>wafer_28042024_031911.csv</t>
+          <t>wafer_28012024_090817.csv</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_050617.csv</t>
+          <t>wafer_28042024_031911.csv</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2593,12 +2593,12 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_050617.csv</t>
+          <t>wafer_28042024_031911.csv</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2638,12 +2638,12 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_060756.csv</t>
+          <t>wafer_29012024_050617.csv</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_060756.csv</t>
+          <t>wafer_29012024_050617.csv</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2753,17 +2753,17 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>wafer_31012024_090811.csv</t>
+          <t>wafer_29012024_060756.csv</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2803,27 +2803,27 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>wafer_31012024_090811.csv</t>
+          <t>wafer_29012024_060756.csv</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2843,15 +2843,75 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>wafer_31012024_090811.csv</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>wafer_31012024_090811.csv</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
+      <c r="E82" s="3" t="inlineStr">
         <is>
           <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
-      <c r="F80" s="3" t="inlineStr">
+      <c r="F82" s="3" t="inlineStr">
         <is>
           <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>

--- a/data/dashboard_data/training_validation_logs.xlsx
+++ b/data/dashboard_data/training_validation_logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>final_file.csv</t>
+          <t>Wafer_07012024_000000.csv</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -523,17 +523,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>final_file_prediction.csv</t>
+          <t>wafer_07012024_041011.csv</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -553,27 +553,27 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Wafer_07012024_000000.csv</t>
+          <t>wafer_07012024_041011.csv</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -613,27 +613,27 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>wafer_07012024_041011.csv</t>
+          <t>Wafer_07012024_223345.csv</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>wafer_07012024_041011.csv</t>
+          <t>Wafer_08012024_120000.csv</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Wafer_07012024_223345.csv</t>
+          <t>Wafer_10012024_131534.csv</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Wafer_08012024_120000.csv</t>
+          <t>Wafer_11012024_151432.csv</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Wafer_10012024_131534.csv</t>
+          <t>Wafer_12012024_111.csv</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Wafer_11012024_151432.csv</t>
+          <t>Wafer_12012024_111213.csv</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Wafer_12012024_111.csv</t>
+          <t>wafer_13012024_090817.csv</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -823,27 +823,27 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Wafer_12012024_111213.csv</t>
+          <t>wafer_13012024_090817.csv</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -913,27 +913,27 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>wafer_13012024_090817.csv</t>
+          <t>Wafer_13012024_141000.csv</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -943,27 +943,27 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>wafer_13012024_090817.csv</t>
+          <t>Wafer_14012024_113045.csv</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Wafer_13012024_141000.csv</t>
+          <t>Wafer_15012024_130532.csv</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Wafer_14012024_113045.csv</t>
+          <t>wafer_16012024_051629.csv</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1033,27 +1033,27 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Wafer_15012024_130532.csv</t>
+          <t>wafer_16012024_051629.csv</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_051629.csv</t>
+          <t>wafer_16012024_134553.csv</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1153,27 +1153,27 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_051629.csv</t>
+          <t>wafer_16012024_134553.csv</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>COLUMN_DIFF BETWEEN DSA FILE AND PREDICTION FILE:-1</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_134553.csv</t>
+          <t>wafer_17012024_125434.csv</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>wafer_16012024_134553.csv</t>
+          <t>wafer_17012024_125434.csv</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>wafer_17012024_125434.csv</t>
+          <t>Wafer_18012024_121532.csv</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>wafer_17012024_125434.csv</t>
+          <t>Wafer_19012024_141432.csv</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>COLUMN_DIFF BETWEEN DSA FILE AND PREDICTION FILE:-1</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Wafer_18012024_121532.csv</t>
+          <t>wafer_20012024_090819.csv</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1333,27 +1333,27 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Wafer_19012024_141432.csv</t>
+          <t>wafer_20012024_090819.csv</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -1393,27 +1393,27 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>wafer_20012024_090819.csv</t>
+          <t>Wafer_20012024_135132.csv</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1423,27 +1423,27 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>wafer_20012024_090819.csv</t>
+          <t>wafer_20022024_090716.csv</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1453,27 +1453,27 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Wafer_20012024_135132.csv</t>
+          <t>wafer_20022024_090716.csv</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1543,12 +1543,12 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>wafer_20022024_090716.csv</t>
+          <t>wafer_21012024_080913.csv</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>wafer_20022024_090716.csv</t>
+          <t>wafer_21012024_080913.csv</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1663,27 +1663,27 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>wafer_21012024_080913.csv</t>
+          <t>Wafer_21012024_143634.csv</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1693,27 +1693,27 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>wafer_21012024_080913.csv</t>
+          <t>Wafer_22012024_173245.csv</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Wafer_21012024_143634.csv</t>
+          <t>wafer_22022024_041119.csv</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1753,27 +1753,27 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Wafer_22012024_173245.csv</t>
+          <t>wafer_22022024_041119.csv</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1793,17 +1793,17 @@
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -1813,12 +1813,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>wafer_22022024_041119.csv</t>
+          <t>wafer_23012024_011008.csv</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1843,27 +1843,27 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>wafer_22022024_041119.csv</t>
+          <t>wafer_23012024_011008.csv</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_011008.csv</t>
+          <t>wafer_23012024_041211.csv</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1933,27 +1933,27 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_011008.csv</t>
+          <t>wafer_23012024_041211.csv</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2023,27 +2023,27 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_041211.csv</t>
+          <t>Wafer_23012024_163456.csv</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -2053,27 +2053,27 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>wafer_23012024_041211.csv</t>
+          <t>Wafer_24012024_150121.csv</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION FAILED</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Wafer_23012024_163456.csv</t>
+          <t>Wafer_25012024_142112.csv</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Wafer_24012024_150121.csv</t>
+          <t>wafer_27012024_080911.csv</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2143,27 +2143,27 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Wafer_25012024_142112.csv</t>
+          <t>wafer_27012024_080911.csv</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION FAILED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>wafer_27012024_080911.csv</t>
+          <t>wafer_28012024_051011.csv</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2263,12 +2263,12 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>wafer_27012024_080911.csv</t>
+          <t>wafer_28012024_051011.csv</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_051011.csv</t>
+          <t>wafer_28012024_090817.csv</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2353,27 +2353,27 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_051011.csv</t>
+          <t>wafer_28012024_090817.csv</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_090817.csv</t>
+          <t>wafer_28042024_031911.csv</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>wafer_28012024_090817.csv</t>
+          <t>wafer_28042024_031911.csv</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>wafer_28042024_031911.csv</t>
+          <t>wafer_29012024_050617.csv</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2593,12 +2593,12 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>wafer_28042024_031911.csv</t>
+          <t>wafer_29012024_050617.csv</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2638,12 +2638,12 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>COLUMN DATA VALIDATION</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_050617.csv</t>
+          <t>wafer_29012024_060756.csv</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_050617.csv</t>
+          <t>wafer_29012024_060756.csv</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA VALIDATION COMPLETED</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2753,17 +2753,17 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_060756.csv</t>
+          <t>wafer_31012024_090811.csv</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
+          <t>FILE NAME VALIDATION</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+          <t>FILE NAME VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2803,27 +2803,27 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>wafer_29012024_060756.csv</t>
+          <t>wafer_31012024_090811.csv</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2843,75 +2843,15 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>FILE NAME VALIDATION</t>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
-        <is>
-          <t>FILE NAME VALIDATION COMPLETED</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>2024-11-02</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>wafer_31012024_090811.csv</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>NUMBER OF COLUMNS VALIDATION</t>
-        </is>
-      </c>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>2024-11-02</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>wafer_31012024_090811.csv</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
-        </is>
-      </c>
-      <c r="F82" s="3" t="inlineStr">
         <is>
           <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
